--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Wnt16</t>
   </si>
   <si>
     <t>Fzd2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4776706666666667</v>
+        <v>0.2864443333333334</v>
       </c>
       <c r="H2">
-        <v>1.433012</v>
+        <v>0.859333</v>
       </c>
       <c r="I2">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="J2">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N2">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P2">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q2">
-        <v>0.2103328838768889</v>
+        <v>0.1470441934063333</v>
       </c>
       <c r="R2">
-        <v>1.892995954892</v>
+        <v>1.323397740657</v>
       </c>
       <c r="S2">
-        <v>0.02209532083504077</v>
+        <v>0.007461671122747092</v>
       </c>
       <c r="T2">
-        <v>0.02209532083504077</v>
+        <v>0.007461671122747089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4776706666666667</v>
+        <v>0.2864443333333334</v>
       </c>
       <c r="H3">
-        <v>1.433012</v>
+        <v>0.859333</v>
       </c>
       <c r="I3">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="J3">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>46.952962</v>
       </c>
       <c r="O3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P3">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q3">
-        <v>7.47601755350489</v>
+        <v>4.483136632705111</v>
       </c>
       <c r="R3">
-        <v>67.28415798154401</v>
+        <v>40.348229694346</v>
       </c>
       <c r="S3">
-        <v>0.7853503616190252</v>
+        <v>0.2274941320474105</v>
       </c>
       <c r="T3">
-        <v>0.7853503616190252</v>
+        <v>0.2274941320474104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2864443333333334</v>
+      </c>
+      <c r="H4">
+        <v>0.859333</v>
+      </c>
+      <c r="I4">
+        <v>0.2576187682440476</v>
+      </c>
+      <c r="J4">
+        <v>0.2576187682440476</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.4776706666666667</v>
-      </c>
-      <c r="H4">
-        <v>1.433012</v>
-      </c>
-      <c r="I4">
-        <v>0.8538091904371788</v>
-      </c>
-      <c r="J4">
-        <v>0.8538091904371788</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N4">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O4">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P4">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q4">
-        <v>0.0007214419302222224</v>
+        <v>0.01393188852177778</v>
       </c>
       <c r="R4">
-        <v>0.006492977372000002</v>
+        <v>0.125386996696</v>
       </c>
       <c r="S4">
-        <v>7.578696501609001E-05</v>
+        <v>0.0007069654901708172</v>
       </c>
       <c r="T4">
-        <v>7.578696501609E-05</v>
+        <v>0.0007069654901708171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4776706666666667</v>
+        <v>0.2864443333333334</v>
       </c>
       <c r="H5">
-        <v>1.433012</v>
+        <v>0.859333</v>
       </c>
       <c r="I5">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="J5">
-        <v>0.8538091904371788</v>
+        <v>0.2576187682440476</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N5">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P5">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q5">
-        <v>0.4367538750306667</v>
+        <v>0.4295507764893334</v>
       </c>
       <c r="R5">
-        <v>3.930784875276001</v>
+        <v>3.865956988404</v>
       </c>
       <c r="S5">
-        <v>0.04588068597204375</v>
+        <v>0.02179730154884171</v>
       </c>
       <c r="T5">
-        <v>0.04588068597204375</v>
+        <v>0.0217973015488417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2864443333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.859333</v>
+      </c>
+      <c r="I6">
+        <v>0.2576187682440476</v>
+      </c>
+      <c r="J6">
+        <v>0.2576187682440476</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>0.4776706666666667</v>
-      </c>
-      <c r="H6">
-        <v>1.433012</v>
-      </c>
-      <c r="I6">
-        <v>0.8538091904371788</v>
-      </c>
-      <c r="J6">
-        <v>0.8538091904371788</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.008111666666666666</v>
+        <v>0.010918</v>
       </c>
       <c r="N6">
-        <v>0.024335</v>
+        <v>0.032754</v>
       </c>
       <c r="O6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="P6">
-        <v>0.0004767283493922972</v>
+        <v>0.0006160189180286153</v>
       </c>
       <c r="Q6">
-        <v>0.003874705224444445</v>
+        <v>0.003127399231333333</v>
       </c>
       <c r="R6">
-        <v>0.03487234702</v>
+        <v>0.028146593082</v>
       </c>
       <c r="S6">
-        <v>0.0004070350460530898</v>
+        <v>0.0001586980348775628</v>
       </c>
       <c r="T6">
-        <v>0.0004070350460530898</v>
+        <v>0.0001586980348775628</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.08178766666666666</v>
+        <v>0.4776706666666667</v>
       </c>
       <c r="H7">
-        <v>0.245363</v>
+        <v>1.433012</v>
       </c>
       <c r="I7">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="J7">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4403303333333333</v>
+        <v>0.513343</v>
       </c>
       <c r="N7">
-        <v>1.320991</v>
+        <v>1.540029</v>
       </c>
       <c r="O7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="P7">
-        <v>0.02587852307343662</v>
+        <v>0.02896400434489499</v>
       </c>
       <c r="Q7">
-        <v>0.03601359052588889</v>
+        <v>0.2452088930386667</v>
       </c>
       <c r="R7">
-        <v>0.324122314733</v>
+        <v>2.206880037348</v>
       </c>
       <c r="S7">
-        <v>0.003783202238395846</v>
+        <v>0.01244298107828985</v>
       </c>
       <c r="T7">
-        <v>0.003783202238395846</v>
+        <v>0.01244298107828985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.08178766666666666</v>
+        <v>0.4776706666666667</v>
       </c>
       <c r="H8">
-        <v>0.245363</v>
+        <v>1.433012</v>
       </c>
       <c r="I8">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="J8">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>46.952962</v>
       </c>
       <c r="O8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="P8">
-        <v>0.9198195222247485</v>
+        <v>0.8830650561604291</v>
       </c>
       <c r="Q8">
-        <v>1.280057735022889</v>
+        <v>7.47601755350489</v>
       </c>
       <c r="R8">
-        <v>11.520519615206</v>
+        <v>67.28415798154401</v>
       </c>
       <c r="S8">
-        <v>0.1344691606057233</v>
+        <v>0.3793661143625623</v>
       </c>
       <c r="T8">
-        <v>0.1344691606057233</v>
+        <v>0.3793661143625623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.08178766666666666</v>
+        <v>0.4776706666666667</v>
       </c>
       <c r="H9">
-        <v>0.245363</v>
+        <v>1.433012</v>
       </c>
       <c r="I9">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="J9">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.001510333333333333</v>
+        <v>0.04863733333333333</v>
       </c>
       <c r="N9">
-        <v>0.004531</v>
+        <v>0.145912</v>
       </c>
       <c r="O9">
-        <v>8.876335118539137E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="P9">
-        <v>8.876335118539136E-05</v>
+        <v>0.00274423131121058</v>
       </c>
       <c r="Q9">
-        <v>0.0001235266392222222</v>
+        <v>0.02323262743822222</v>
       </c>
       <c r="R9">
-        <v>0.001111739753</v>
+        <v>0.209093646944</v>
       </c>
       <c r="S9">
-        <v>1.297638616930137E-05</v>
+        <v>0.001178926017039568</v>
       </c>
       <c r="T9">
-        <v>1.297638616930136E-05</v>
+        <v>0.001178926017039568</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.08178766666666666</v>
+        <v>0.4776706666666667</v>
       </c>
       <c r="H10">
-        <v>0.245363</v>
+        <v>1.433012</v>
       </c>
       <c r="I10">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="J10">
-        <v>0.1461908095628212</v>
+        <v>0.4296015471521973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.914341</v>
+        <v>1.499596</v>
       </c>
       <c r="N10">
-        <v>2.743023</v>
+        <v>4.498788</v>
       </c>
       <c r="O10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="P10">
-        <v>0.0537364630012372</v>
+        <v>0.08461068926543686</v>
       </c>
       <c r="Q10">
-        <v>0.07478181692766665</v>
+        <v>0.7163130210506669</v>
       </c>
       <c r="R10">
-        <v>0.6730363523489999</v>
+        <v>6.446817189456001</v>
       </c>
       <c r="S10">
-        <v>0.007855777029193453</v>
+        <v>0.03634888301404549</v>
       </c>
       <c r="T10">
-        <v>0.007855777029193453</v>
+        <v>0.03634888301404549</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4776706666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.433012</v>
+      </c>
+      <c r="I11">
+        <v>0.4296015471521973</v>
+      </c>
+      <c r="J11">
+        <v>0.4296015471521973</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.010918</v>
+      </c>
+      <c r="N11">
+        <v>0.032754</v>
+      </c>
+      <c r="O11">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="P11">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="Q11">
+        <v>0.005215208338666667</v>
+      </c>
+      <c r="R11">
+        <v>0.046936875048</v>
+      </c>
+      <c r="S11">
+        <v>0.0002646426802601158</v>
+      </c>
+      <c r="T11">
+        <v>0.0002646426802601158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.613874</v>
+      </c>
+      <c r="I12">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J12">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.513343</v>
+      </c>
+      <c r="N12">
+        <v>1.540029</v>
+      </c>
+      <c r="O12">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="P12">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="Q12">
+        <v>0.1050426402606667</v>
+      </c>
+      <c r="R12">
+        <v>0.945383762346</v>
+      </c>
+      <c r="S12">
+        <v>0.005330327008046063</v>
+      </c>
+      <c r="T12">
+        <v>0.005330327008046062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.613874</v>
+      </c>
+      <c r="I13">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J13">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N13">
+        <v>46.952962</v>
+      </c>
+      <c r="O13">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="P13">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="Q13">
+        <v>3.202578066087556</v>
+      </c>
+      <c r="R13">
+        <v>28.823202594788</v>
+      </c>
+      <c r="S13">
+        <v>0.1625129406370662</v>
+      </c>
+      <c r="T13">
+        <v>0.1625129406370662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.613874</v>
+      </c>
+      <c r="I14">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J14">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.04863733333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.145912</v>
+      </c>
+      <c r="O14">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="P14">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="Q14">
+        <v>0.009952398120888889</v>
+      </c>
+      <c r="R14">
+        <v>0.08957158308799999</v>
+      </c>
+      <c r="S14">
+        <v>0.0005050285899798102</v>
+      </c>
+      <c r="T14">
+        <v>0.0005050285899798102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.613874</v>
+      </c>
+      <c r="I15">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J15">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.499596</v>
+      </c>
+      <c r="N15">
+        <v>4.498788</v>
+      </c>
+      <c r="O15">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="P15">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="Q15">
+        <v>0.3068543316346667</v>
+      </c>
+      <c r="R15">
+        <v>2.761688984712</v>
+      </c>
+      <c r="S15">
+        <v>0.01557114260827136</v>
+      </c>
+      <c r="T15">
+        <v>0.01557114260827136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2046246666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.613874</v>
+      </c>
+      <c r="I16">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="J16">
+        <v>0.1840328065337261</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.010918</v>
+      </c>
+      <c r="N16">
+        <v>0.032754</v>
+      </c>
+      <c r="O16">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="P16">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="Q16">
+        <v>0.002234092110666666</v>
+      </c>
+      <c r="R16">
+        <v>0.020106828996</v>
+      </c>
+      <c r="S16">
+        <v>0.0001133676903626754</v>
+      </c>
+      <c r="T16">
+        <v>0.0001133676903626754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.08178766666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.245363</v>
-      </c>
-      <c r="I11">
-        <v>0.1461908095628212</v>
-      </c>
-      <c r="J11">
-        <v>0.1461908095628212</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="G17">
+        <v>0.016355</v>
+      </c>
+      <c r="H17">
+        <v>0.049065</v>
+      </c>
+      <c r="I17">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J17">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.513343</v>
+      </c>
+      <c r="N17">
+        <v>1.540029</v>
+      </c>
+      <c r="O17">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="P17">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="Q17">
+        <v>0.008395724764999999</v>
+      </c>
+      <c r="R17">
+        <v>0.075561522885</v>
+      </c>
+      <c r="S17">
+        <v>0.0004260361159615491</v>
+      </c>
+      <c r="T17">
+        <v>0.0004260361159615491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M11">
-        <v>0.008111666666666666</v>
-      </c>
-      <c r="N11">
-        <v>0.024335</v>
-      </c>
-      <c r="O11">
-        <v>0.0004767283493922972</v>
-      </c>
-      <c r="P11">
-        <v>0.0004767283493922972</v>
-      </c>
-      <c r="Q11">
-        <v>0.0006634342894444444</v>
-      </c>
-      <c r="R11">
-        <v>0.005970908604999999</v>
-      </c>
-      <c r="S11">
-        <v>6.969330333920739E-05</v>
-      </c>
-      <c r="T11">
-        <v>6.969330333920739E-05</v>
+      <c r="G18">
+        <v>0.016355</v>
+      </c>
+      <c r="H18">
+        <v>0.049065</v>
+      </c>
+      <c r="I18">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J18">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N18">
+        <v>46.952962</v>
+      </c>
+      <c r="O18">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="P18">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="Q18">
+        <v>0.2559718978366666</v>
+      </c>
+      <c r="R18">
+        <v>2.30374708053</v>
+      </c>
+      <c r="S18">
+        <v>0.01298914342740962</v>
+      </c>
+      <c r="T18">
+        <v>0.01298914342740962</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.016355</v>
+      </c>
+      <c r="H19">
+        <v>0.049065</v>
+      </c>
+      <c r="I19">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J19">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.04863733333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.145912</v>
+      </c>
+      <c r="O19">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="P19">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="Q19">
+        <v>0.0007954635866666666</v>
+      </c>
+      <c r="R19">
+        <v>0.007159172279999999</v>
+      </c>
+      <c r="S19">
+        <v>4.036533192049082E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.036533192049083E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.016355</v>
+      </c>
+      <c r="H20">
+        <v>0.049065</v>
+      </c>
+      <c r="I20">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J20">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.499596</v>
+      </c>
+      <c r="N20">
+        <v>4.498788</v>
+      </c>
+      <c r="O20">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="P20">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="Q20">
+        <v>0.02452589258</v>
+      </c>
+      <c r="R20">
+        <v>0.22073303322</v>
+      </c>
+      <c r="S20">
+        <v>0.001244551996134116</v>
+      </c>
+      <c r="T20">
+        <v>0.001244551996134116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.016355</v>
+      </c>
+      <c r="H21">
+        <v>0.049065</v>
+      </c>
+      <c r="I21">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="J21">
+        <v>0.01470915799101651</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.010918</v>
+      </c>
+      <c r="N21">
+        <v>0.032754</v>
+      </c>
+      <c r="O21">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="P21">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="Q21">
+        <v>0.00017856389</v>
+      </c>
+      <c r="R21">
+        <v>0.00160707501</v>
+      </c>
+      <c r="S21">
+        <v>9.061119590737953E-06</v>
+      </c>
+      <c r="T21">
+        <v>9.061119590737954E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.380393</v>
+      </c>
+      <c r="I22">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J22">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.513343</v>
+      </c>
+      <c r="N22">
+        <v>1.540029</v>
+      </c>
+      <c r="O22">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="P22">
+        <v>0.02896400434489499</v>
+      </c>
+      <c r="Q22">
+        <v>0.06509069459966667</v>
+      </c>
+      <c r="R22">
+        <v>0.5858162513969999</v>
+      </c>
+      <c r="S22">
+        <v>0.003302989019850435</v>
+      </c>
+      <c r="T22">
+        <v>0.003302989019850435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.380393</v>
+      </c>
+      <c r="I23">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J23">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>15.65098733333333</v>
+      </c>
+      <c r="N23">
+        <v>46.952962</v>
+      </c>
+      <c r="O23">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="P23">
+        <v>0.8830650561604291</v>
+      </c>
+      <c r="Q23">
+        <v>1.984508674896222</v>
+      </c>
+      <c r="R23">
+        <v>17.860578074066</v>
+      </c>
+      <c r="S23">
+        <v>0.1007027256859804</v>
+      </c>
+      <c r="T23">
+        <v>0.1007027256859804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.380393</v>
+      </c>
+      <c r="I24">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J24">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.04863733333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.145912</v>
+      </c>
+      <c r="O24">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="P24">
+        <v>0.00274423131121058</v>
+      </c>
+      <c r="Q24">
+        <v>0.006167100379555555</v>
+      </c>
+      <c r="R24">
+        <v>0.05550390341599999</v>
+      </c>
+      <c r="S24">
+        <v>0.0003129458820998933</v>
+      </c>
+      <c r="T24">
+        <v>0.0003129458820998933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.380393</v>
+      </c>
+      <c r="I25">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J25">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.499596</v>
+      </c>
+      <c r="N25">
+        <v>4.498788</v>
+      </c>
+      <c r="O25">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="P25">
+        <v>0.08461068926543686</v>
+      </c>
+      <c r="Q25">
+        <v>0.1901452737426667</v>
+      </c>
+      <c r="R25">
+        <v>1.711307463684</v>
+      </c>
+      <c r="S25">
+        <v>0.00964881009814419</v>
+      </c>
+      <c r="T25">
+        <v>0.00964881009814419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1267976666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.380393</v>
+      </c>
+      <c r="I26">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="J26">
+        <v>0.1140377200790124</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.010918</v>
+      </c>
+      <c r="N26">
+        <v>0.032754</v>
+      </c>
+      <c r="O26">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="P26">
+        <v>0.0006160189180286153</v>
+      </c>
+      <c r="Q26">
+        <v>0.001384376924666666</v>
+      </c>
+      <c r="R26">
+        <v>0.012459392322</v>
+      </c>
+      <c r="S26">
+        <v>7.024939293752334E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.024939293752334E-05</v>
       </c>
     </row>
   </sheetData>
